--- a/docs/ST6/ST6_08.11.2024_output.xlsx
+++ b/docs/ST6/ST6_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2729 +505,3231 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731504191.6956613</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731504192.1875696</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504191.6956613.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504192.1875696.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7148.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7143</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731504194.9188528</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731504195.3873866</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504194.9188528.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504195.3873866.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7140.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7128</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-12.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731504196.361302</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731504196.9615424</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504196.361302.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504196.9615424.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7123</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7092</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731504199.6433065</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731504199.7858028</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504199.6433065.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504199.7858028.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7090</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7088.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731504200.4563181</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731504200.6710377</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504200.4563181.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504200.6710377.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7101</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7105.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-4.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731504202.8453481</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731504203.1898756</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504202.8453481.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504203.1898756.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7095</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7092.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731504206.5131767</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731504206.7962177</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504206.5131767.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504206.7962177.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7092.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7092</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731504209.9478028</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731504210.0932295</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504209.9478028.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504210.0932295.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7092.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7092</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731504211.3337371</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731504211.556265</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504211.3337371.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504211.556265.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7082.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7079</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-3.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731504212.253294</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731504212.485924</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504212.253294.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504212.485924.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7066</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7067</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731504214.0807085</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731504214.0807085.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731504214.0807085.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>7074</v>
       </c>
-      <c r="J13" t="n">
-        <v>7074</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>7075.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731504218.8363574</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731504219.0375435</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504218.8363574.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504219.0375435.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>474.65</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>473.85</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731504221.6741714</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731504221.7259</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504221.6741714.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504221.7259.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>474</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>474.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731504231.6917555</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731504231.8000906</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504231.6917555.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504231.8000906.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>475.65</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>475.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731504233.292436</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731504233.4963923</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504233.292436.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504233.4963923.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>475.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>474.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.5999999999999659</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731504239.5933077</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731504239.9795258</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504239.5933077.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504239.9795258.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>932.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>929.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-2.799999999999955</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731504242.518796</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731504242.7481558</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504242.518796.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504242.7481558.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>927.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>928</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731504243.0224133</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731504243.1092887</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504243.0224133.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504243.1092887.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>930.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>930.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731504243.224992</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731504243.4816523</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504243.224992.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504243.4816523.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>932.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>932.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731504245.8816109</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731504246.0251122</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504245.8816109.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504246.0251122.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>931</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>930.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731504246.9639957</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731504247.1113713</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504246.9639957.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504247.1113713.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>931.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>931.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731504248.7267659</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731504249.0439942</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504248.7267659.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504249.0439942.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>934</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>932.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731504251.1443539</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731504251.194158</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504251.1443539.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504251.194158.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>933.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>933</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731504256.7878153</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731504256.9771597</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504256.7878153.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504256.9771597.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>129.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>130.24</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731504257.0552402</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731504257.1020877</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504257.0552402.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504257.1020877.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130.32</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>130.26</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731504263.4618516</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731504263.515532</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504263.4618516.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504263.515532.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>129.62</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>129.38</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731504265.8135207</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731504265.912097</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504265.8135207.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504265.912097.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>129.54</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>129.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731504265.9745617</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731504266.207826</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504265.9745617.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504266.207826.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>129.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>129.44</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731504266.2529867</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731504266.3632762</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504266.2529867.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504266.3632762.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>129.34</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>129.32</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731504268.1733966</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731504268.3793254</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504268.1733966.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504268.3793254.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>129.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>129.98</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731504268.610642</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731504268.703765</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504268.610642.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504268.703765.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>130.44</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>130.32</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731504277.4207928</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731504277.4686177</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504277.4207928.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504277.4686177.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>37.88</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>37.85</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731504279.6011987</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731504279.649023</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504279.6011987.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504279.649023.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>37.765</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>37.84</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731504281.2084856</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731504281.3080423</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504281.2084856.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504281.3080423.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>37.725</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>37.78</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731504281.5227625</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731504281.62817</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504281.5227625.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504281.62817.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>37.705</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>37.715</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731504289.4503155</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731504289.665036</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504289.4503155.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504289.665036.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>37.955</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>38.005</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731504301.023858</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731504301.0785139</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504301.023858.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504301.0785139.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1190</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1186.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731504307.498715</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731504307.6021717</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504307.498715.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504307.6021717.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1183.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1185</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731504307.650971</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731504307.7849224</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504307.650971.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504307.7849224.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1182.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1183.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731504309.3954387</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731504309.802434</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504309.3954387.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504309.802434.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1186</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1187.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731504309.9185805</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731504310.097217</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504309.9185805.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504310.097217.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1189.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731504311.5701034</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731504311.6491594</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504311.5701034.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504311.6491594.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1186.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1187</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731504313.9792435</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731504314.0953877</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504313.9792435.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504314.0953877.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1191.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1191</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731504316.8517184</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731504317.1259751</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504316.8517184.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504317.1259751.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1189.2</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.6000000000001364</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731504322.9430656</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731504323.208564</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731504322.9430656.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731504323.208564.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>78.73999999999999</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>78.34</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.3999999999999915</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731504328.9477122</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731504329.0228646</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731504328.9477122.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731504329.0228646.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>78.17</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731504348.5953777</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731504348.6666265</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504348.5953777.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504348.6666265.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>102.35</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>102.64</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2900000000000063</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731504349.3752012</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731504349.505986</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504349.3752012.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504349.505986.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>102.76</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>102.72</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731504354.7636747</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731504354.8475835</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504354.7636747.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504354.8475835.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>103.36</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>103.24</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731504356.1159282</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731504356.2037683</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504356.1159282.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504356.2037683.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>103.27</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>103.26</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731504358.8973033</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731504359.0134475</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504358.8973033.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731504359.0134475.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>102.69</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>102.79</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1000000000000085</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731504363.965487</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731504364.5139985</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731504363.965487.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731504364.5139985.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2747.85</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2736.95</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-10.90000000000009</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731504372.4622686</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731504372.5852451</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731504372.4622686.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731504372.5852451.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2756.7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2753.1</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731504390.917837</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731504390.9588294</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/APTK1731504390.917837.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/APTK1731504390.9588294.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>10.824</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>10.83</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731504392.029025</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731504392.327682</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/APTK1731504392.029025.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/APTK1731504392.327682.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>10.87</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>10.87</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3220,636 +3737,753 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731504398.9843829</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731504399.2128167</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/APTK1731504398.9843829.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/APTK1731504399.2128167.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>10.842</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>10.85</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.007999999999999119</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731504401.4973707</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731504401.7345395</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504401.4973707.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504401.7345395.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>480</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>479</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731504409.3051877</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731504409.3999388</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504409.3051877.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504409.3999388.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>484.4</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>484.1</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731504411.8039765</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731504411.8527493</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504411.8039765.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504411.8527493.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>481.9</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>481.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731504412.8102574</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731504412.916641</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504412.8102574.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504412.916641.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>483</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>482.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731504412.9657664</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731504413.1707258</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504412.9657664.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504413.1707258.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>482.9</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>483.7</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.8000000000000114</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731504413.241974</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731504413.46255</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504413.241974.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731504413.46255.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>485</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>486.1</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-1.100000000000023</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731504422.24747</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731504422.2933125</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504422.24747.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504422.2933125.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>575.9</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>575.5</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731504423.454778</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731504423.539689</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504423.454778.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504423.539689.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>575.5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>576.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731504424.3410988</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731504424.5265121</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504424.3410988.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504424.5265121.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>575.6</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>575.3</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.3000000000000682</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731504425.9043763</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731504426.0819807</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504425.9043763.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504426.0819807.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>573</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>573.7</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731504427.3805323</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731504427.493748</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504427.3805323.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504427.493748.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>574.9</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>576.1</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731504433.4808195</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731504433.6272254</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504433.4808195.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504433.6272254.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>578.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>578.9</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3857,196 +4491,232 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731504436.0266385</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731504436.0793421</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504436.0266385.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504436.0793421.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>580.5</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>580.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731504437.9142709</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731504438.239677</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504437.9142709.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504438.239677.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>582.9</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>584</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-1.100000000000023</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731504439.5758584</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731504439.7642272</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504439.5758584.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504439.7642272.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>582.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>582.6</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731504440.6109917</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731504440.8462079</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504440.6109917.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/TATN1731504440.8462079.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>578.5</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>578</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4089,6 +4759,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4097,13 +4777,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-47</v>
+        <v>-48.5</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.272727272727272</v>
+        <v>-4.409090909090909</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="3">
@@ -4121,6 +4807,12 @@
       <c r="D3" t="n">
         <v>-0.0400000000000091</v>
       </c>
+      <c r="E3" t="n">
+        <v>-0.08000000000000003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4137,6 +4829,12 @@
       <c r="D4" t="n">
         <v>0.5500000000000398</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4153,6 +4851,12 @@
       <c r="D5" t="n">
         <v>-0.01499999999999702</v>
       </c>
+      <c r="E5" t="n">
+        <v>-0.08999999999999998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4169,6 +4873,12 @@
       <c r="D6" t="n">
         <v>-0.3750000000000142</v>
       </c>
+      <c r="E6" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4185,6 +4895,12 @@
       <c r="D7" t="n">
         <v>-0.3166666666666913</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4201,6 +4917,12 @@
       <c r="D8" t="n">
         <v>0.02400000000000091</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4217,6 +4939,12 @@
       <c r="D9" t="n">
         <v>0.1120000000000033</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4233,6 +4961,12 @@
       <c r="D10" t="n">
         <v>-0.2374999999999972</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4249,6 +4983,12 @@
       <c r="D11" t="n">
         <v>0.004666666666666448</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4265,6 +5005,12 @@
       <c r="D12" t="n">
         <v>-3.650000000000091</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4281,6 +5027,12 @@
       <c r="D13" t="n">
         <v>-0.1899999999999977</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4295,6 +5047,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
